--- a/data/WIKIDATA/relation_entre_objets.xlsx
+++ b/data/WIKIDATA/relation_entre_objets.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldebisschop/Documents/GitHub/FacilityList/data/WIKIDATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77ED35DE-E16C-A74E-9E06-47D6E0AE977F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1716A96-22FD-A341-82CB-D41C0631B1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43560" yWindow="1320" windowWidth="19840" windowHeight="14900"/>
+    <workbookView xWindow="15600" yWindow="500" windowWidth="10000" windowHeight="15500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Classeur1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
   <si>
     <t xml:space="preserve"> space observatory</t>
   </si>
@@ -212,13 +214,94 @@
   </si>
   <si>
     <t>3MV</t>
+  </si>
+  <si>
+    <t>comunications satellites</t>
+  </si>
+  <si>
+    <t>Tracking and Data Relay Satellite</t>
+  </si>
+  <si>
+    <t>vehicle family</t>
+  </si>
+  <si>
+    <t>satelitte constellation</t>
+  </si>
+  <si>
+    <t>group of physical objects</t>
+  </si>
+  <si>
+    <t>navigation satellite</t>
+  </si>
+  <si>
+    <t>technology demonstration spacecraf</t>
+  </si>
+  <si>
+    <t>technology demonstration</t>
+  </si>
+  <si>
+    <t>amateur radio satellite</t>
+  </si>
+  <si>
+    <t>human-made geographic feature</t>
+  </si>
+  <si>
+    <t>info manquantes</t>
+  </si>
+  <si>
+    <t>score faible ???</t>
+  </si>
+  <si>
+    <t>pas de match</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>COS A</t>
+  </si>
+  <si>
+    <t>GRASP</t>
+  </si>
+  <si>
+    <t>LAS (Q907773)</t>
+  </si>
+  <si>
+    <t>QUASAT</t>
+  </si>
+  <si>
+    <t>OSO-J</t>
+  </si>
+  <si>
+    <t>OV1-7</t>
+  </si>
+  <si>
+    <t>Spectrum-X-Gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atlas 1 / STS 45</t>
+  </si>
+  <si>
+    <t>CXBN 2</t>
+  </si>
+  <si>
+    <t>Space Shuttle (Q48806)</t>
+  </si>
+  <si>
+    <t>robo</t>
+  </si>
+  <si>
+    <t>Atlas 4</t>
+  </si>
+  <si>
+    <t>OSO-K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +436,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF993300"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="67">
     <fill>
@@ -739,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -870,6 +973,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -907,7 +1030,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -950,8 +1073,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,146 +1086,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1131,6 +1277,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1469,16 +1616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView topLeftCell="A18" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C38" sqref="B38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1994,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>22</v>
@@ -2300,7 +2447,7 @@
       <c r="A60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -2316,7 +2463,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10" t="s">
         <v>7</v>
@@ -2798,8 +2945,185 @@
       <c r="G94" s="3"/>
       <c r="H94" s="1"/>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="54"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="56"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="56"/>
+      <c r="B99" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="56"/>
+      <c r="B100" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="56"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="56"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="51"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="53"/>
+      <c r="B106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="57"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="52" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="90">
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C101"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="C92:C94"/>
@@ -2824,6 +3148,7 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B60:B61"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:C44"/>
@@ -2877,6 +3202,114 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A14:A16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A97" r:id="rId1" tooltip="Q2166659" display="https://www.wikidata.org/wiki/Q2166659"/>
+    <hyperlink ref="A105" r:id="rId2" tooltip="Q95945728" display="https://www.wikidata.org/wiki/Q95945728"/>
+    <hyperlink ref="A107" r:id="rId3" tooltip="Q455647" display="https://www.wikidata.org/wiki/Q455647"/>
+    <hyperlink ref="B109" r:id="rId4" tooltip="Q811430" display="https://www.wikidata.org/wiki/Q811430"/>
+  </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>